--- a/Documentos/02 Requisitos/010 Especificación detallada Administrador/002 ESP_DET_WRRS_ Modulo visualizar estadisticas.xlsx
+++ b/Documentos/02 Requisitos/010 Especificación detallada Administrador/002 ESP_DET_WRRS_ Modulo visualizar estadisticas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>Orden de navegación</t>
   </si>
@@ -60,36 +60,6 @@
     <t>Tipo de campo</t>
   </si>
   <si>
-    <t>Número máximo de dígitos</t>
-  </si>
-  <si>
-    <t>Dígitos numéricos enteros</t>
-  </si>
-  <si>
-    <t>Dígitos numéricos decimales</t>
-  </si>
-  <si>
-    <t>Tiempo</t>
-  </si>
-  <si>
-    <t>Dropdown button</t>
-  </si>
-  <si>
-    <t>Se mostrará una lista desplegable con un número de meses especifico para generar las estadisticas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los valores de la lista desplegable son los siguientes: Último mes, Últimos 2 meses, Últimos 3 meses, Últimos 6 meses y Último año </t>
-  </si>
-  <si>
-    <t>Tiempo para generar estadisticas</t>
-  </si>
-  <si>
-    <t>Se debe seleccionar un valor de la lista desplegable</t>
-  </si>
-  <si>
-    <t>Por favor seleccione un valor de la lista desplegable</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -99,58 +69,64 @@
     <t>NO</t>
   </si>
   <si>
-    <t>Último mes</t>
-  </si>
-  <si>
-    <t>De selección</t>
-  </si>
-  <si>
     <t>Cuñas emitidas</t>
   </si>
   <si>
     <t>Total recaudado</t>
   </si>
   <si>
-    <t>Categorias de cuñas</t>
-  </si>
-  <si>
-    <t>Revisión de mes</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Se mostrará un texto con la cantidad de cuñas emitidas por la emisora en el lapso de tiempo seleccionado</t>
-  </si>
-  <si>
-    <t>Se deben contar todas las cuñas emitidas por la emisora en el lapso especifico seleccionado.</t>
-  </si>
-  <si>
     <t>De información</t>
   </si>
   <si>
-    <t>Este campo hace referencia a la cantidad de dinero recaudada por la emisora en el lapso de tiempo especificado.</t>
-  </si>
-  <si>
-    <t>El valor debe incluir todas las cuñas emitidas en el lapso de tiempo seleccionado y mostrarlo en formato de moneda colombiana</t>
-  </si>
-  <si>
-    <t>Total de dinero recaudado</t>
-  </si>
-  <si>
-    <t>Se mostrará una lista desplegable con un número de meses especifico para generar las estadisticas según las categorias de cuñas.</t>
-  </si>
-  <si>
-    <t>Tiempo para generar estadisticas por categoria</t>
-  </si>
-  <si>
-    <t>Se debe mostrar este campo en el cual se especificará una comparativa en cuanto a ingresos de la emisora entre el mes actual y el mes inmediatamente anterior.</t>
-  </si>
-  <si>
-    <t>La comparativa debe contener los ingresos del mes actual y el mes anterior en contraposición y pintados de diferente color</t>
-  </si>
-  <si>
-    <t>Revisión contable del mes</t>
+    <t>Se mostrará el número de cuñas emitidas por la emisora.</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>Se debe mostrar el número total de cuñas emitidas por la emisora teniendo en cuenta todas las categorias.</t>
+  </si>
+  <si>
+    <t>Número máximo de caracteres</t>
+  </si>
+  <si>
+    <t>Número mínimo de caractéres</t>
+  </si>
+  <si>
+    <t>Este campo hace referencia a la cantidad de dinero recaudado por la emisora por las cuñas emitidas.</t>
+  </si>
+  <si>
+    <t>El valor debe incluir todas las cuñas emitidas por la emisora.</t>
+  </si>
+  <si>
+    <t>Categorias de Cuñas</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Se mostrará una gráfica de tipo pastel en la cual se mostrará los porcentajes de participación de cada categoria de las cuñas emitidas.</t>
+  </si>
+  <si>
+    <t>Las categorias que se deben mostrar en la gráfica serán: Informativas, Religiosas, Comercial y Exequias.</t>
+  </si>
+  <si>
+    <t>Gráfica pastel</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>Botón</t>
+  </si>
+  <si>
+    <t>Se debe mostrar un botón en la parte superior derecha de la gráfica anterior con líneas horizontales.</t>
+  </si>
+  <si>
+    <t>Se debe mostrar una lista de opciones entre las cuales se encuentran las siguientes: Print (Imprimir), Save as JPEG y Save as PNG.</t>
+  </si>
+  <si>
+    <t>Botón menú</t>
   </si>
 </sst>
 </file>
@@ -541,11 +517,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,10 +541,9 @@
     <col min="13" max="13" width="14.44140625" customWidth="1"/>
     <col min="14" max="14" width="12.5546875" customWidth="1"/>
     <col min="15" max="15" width="13.88671875" customWidth="1"/>
-    <col min="16" max="16" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,263 +584,198 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="3" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="N3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="66" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>23</v>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="5" spans="1:15" ht="66" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="5">
-        <v>14</v>
-      </c>
-      <c r="O3" s="5">
-        <v>14</v>
-      </c>
-      <c r="P3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="5">
-        <v>25</v>
-      </c>
-      <c r="O4" s="5">
-        <v>17</v>
-      </c>
-      <c r="P4" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="66" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="N5" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="66" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="5">
-        <v>35</v>
-      </c>
-      <c r="O6" s="5">
-        <v>25</v>
-      </c>
-      <c r="P6" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
